--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2852.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2852.xlsx
@@ -354,7 +354,7 @@
         <v>2.228888209712019</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.325747576600168</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2852.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2852.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.174663278594803</v>
+        <v>1.330193400382996</v>
       </c>
       <c r="B1">
-        <v>2.228888209712019</v>
+        <v>1.665873289108276</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.109106540679932</v>
       </c>
       <c r="D1">
-        <v>2.325747576600168</v>
+        <v>3.177010297775269</v>
       </c>
       <c r="E1">
-        <v>1.225334588357085</v>
+        <v>1.111135125160217</v>
       </c>
     </row>
   </sheetData>
